--- a/天气及车站.xlsx
+++ b/天气及车站.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD107AE-28A6-42AF-A833-6FBEB06D389B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E221FE50-F011-4378-8706-DEDCF6F2E524}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="2670" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周末天气" sheetId="1" r:id="rId1"/>
@@ -979,16 +979,16 @@
       <selection activeCell="A34" sqref="A34:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1927,17 +1927,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4DF154-F9FF-4136-8C71-8036628485A3}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2008,8 +2008,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2022,7 +2022,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2036,8 +2036,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -2056,7 +2056,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2107,8 +2107,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -2127,8 +2127,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -2147,8 +2147,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -2167,7 +2167,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2209,8 +2209,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -2232,7 +2232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2288,8 +2288,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -2311,7 +2311,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2673,8 +2673,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -2693,7 +2693,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2755,8 +2755,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -2775,8 +2775,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -2795,7 +2795,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3109,8 +3109,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -3123,8 +3123,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -3137,8 +3137,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -3151,7 +3151,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
